--- a/Data/Input/OfferLetterInput.xlsx
+++ b/Data/Input/OfferLetterInput.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\55649C\Documents\UiPath\P004_SP002_090_NewHireCommunication_OfferLetterCreation_Dispatcher\Data\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\55649C\Documents\UiPath\P004_SP002_090_NewHireCommunication_OfferLetterCreation_Performer\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43351065-13BE-445E-86A8-D8CBF3180647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833788A1-FBCE-4F3F-8D09-E624318D94E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -461,7 +461,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
